--- a/manipulator_x_description/doc/robotis_manipulator_x_mass_property.xlsx
+++ b/manipulator_x_description/doc/robotis_manipulator_x_mass_property.xlsx
@@ -10,6 +10,7 @@
   <sheets>
     <sheet name="X" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="H" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -699,24 +700,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q65536"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="20.2"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="6" min="3" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.7773279352227"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.8178137651822"/>
     <col collapsed="false" hidden="false" max="12" min="9" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="15" min="13" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,7 +736,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -765,7 +766,7 @@
         <v>0.001</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -809,7 +810,7 @@
         <v>1E-009</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="13" t="n">
         <v>1</v>
@@ -854,7 +855,7 @@
         <v>0.034</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="13" t="n">
         <v>2</v>
@@ -899,7 +900,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="13" t="n">
         <v>3</v>
@@ -944,7 +945,7 @@
         <v>0.1045</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="13" t="n">
         <v>4</v>
@@ -989,7 +990,7 @@
         <v>0.024</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="13" t="n">
         <v>5</v>
@@ -1034,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="8" t="n">
         <v>6</v>
@@ -1079,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="n">
         <v>789</v>
@@ -1124,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1141,13 +1142,12 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
@@ -1173,7 +1173,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="17.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="5" t="s">
@@ -1213,7 +1213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="13" t="n">
         <v>1</v>
       </c>
@@ -1240,7 +1240,7 @@
       <c r="N16" s="22"/>
       <c r="O16" s="23"/>
     </row>
-    <row r="17" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="13" t="n">
         <v>2</v>
       </c>
@@ -1267,7 +1267,7 @@
       <c r="N17" s="32"/>
       <c r="O17" s="33"/>
     </row>
-    <row r="18" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="13" t="n">
         <v>3</v>
       </c>
@@ -1294,7 +1294,7 @@
       <c r="N18" s="32"/>
       <c r="O18" s="33"/>
     </row>
-    <row r="19" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="13" t="n">
         <v>4</v>
       </c>
@@ -1321,7 +1321,7 @@
       <c r="N19" s="32"/>
       <c r="O19" s="33"/>
     </row>
-    <row r="20" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="13" t="n">
         <v>5</v>
       </c>
@@ -1348,7 +1348,7 @@
       <c r="N20" s="32"/>
       <c r="O20" s="33"/>
     </row>
-    <row r="21" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8" t="n">
         <v>6</v>
       </c>
@@ -1375,7 +1375,7 @@
       <c r="N21" s="42"/>
       <c r="O21" s="43"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D22" s="15" t="n">
         <f aca="false">D10-M10</f>
         <v>-0.099059976</v>
@@ -1389,8 +1389,7 @@
         <v>-0.00020824691</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
       <c r="D25" s="48"/>
@@ -1407,7 +1406,7 @@
       <c r="O25" s="48"/>
       <c r="P25" s="48"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="48"/>
       <c r="C26" s="48"/>
       <c r="D26" s="48"/>
@@ -1424,7 +1423,7 @@
       <c r="O26" s="48"/>
       <c r="P26" s="48"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
@@ -1441,7 +1440,7 @@
       <c r="O27" s="48"/>
       <c r="P27" s="48"/>
     </row>
-    <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="48" t="s">
         <v>16</v>
       </c>
@@ -1480,13 +1479,6 @@
       <c r="O28" s="48"/>
       <c r="P28" s="48"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="D2:F2"/>
@@ -1519,11 +1511,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="12" min="7" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="15" min="13" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2309,4 +2301,30 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/manipulator_x_description/doc/robotis_manipulator_x_mass_property.xlsx
+++ b/manipulator_x_description/doc/robotis_manipulator_x_mass_property.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="18">
   <si>
     <t xml:space="preserve">ROS</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t xml:space="preserve">zz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tooltip</t>
   </si>
   <si>
     <t xml:space="preserve">KDL</t>
@@ -274,7 +277,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -453,6 +456,10 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -703,7 +710,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.2"/>
@@ -1127,24 +1134,52 @@
     </row>
     <row r="11" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="45" t="n">
+        <v>0.0049317559</v>
+      </c>
+      <c r="D11" s="45" t="n">
+        <v>0.0087354707</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="45" t="n">
+        <v>1.616323E-007</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="45" t="n">
+        <v>2.0610614E-007</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="45" t="n">
+        <v>2.0610616E-007</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1217,7 +1252,7 @@
       <c r="B16" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="45"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="15" t="n">
         <f aca="false">D4-M4</f>
         <v>-0.011727629</v>
@@ -1244,7 +1279,7 @@
       <c r="B17" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="15" t="n">
         <f aca="false">D5-M5</f>
         <v>0</v>
@@ -1271,7 +1306,7 @@
       <c r="B18" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="15" t="n">
         <f aca="false">D6-M6</f>
         <v>-0.0186504447</v>
@@ -1298,7 +1333,7 @@
       <c r="B19" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C19" s="46"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="15" t="n">
         <f aca="false">D7-M7</f>
         <v>-0.019024149</v>
@@ -1325,7 +1360,7 @@
       <c r="B20" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="C20" s="46"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="15" t="n">
         <f aca="false">D8-M8</f>
         <v>-0.01320516</v>
@@ -1352,7 +1387,7 @@
       <c r="B21" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="C21" s="47"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="15" t="n">
         <f aca="false">D9-M9</f>
         <v>-0.019024149</v>
@@ -1389,60 +1424,66 @@
         <v>-0.00020824691</v>
       </c>
     </row>
+    <row r="23" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="0" t="n">
+        <f aca="false">D11-M11</f>
+        <v>-0.0112645293</v>
+      </c>
+    </row>
     <row r="25" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
     </row>
     <row r="26" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
     </row>
     <row r="27" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
     </row>
     <row r="28" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="48" t="s">
-        <v>16</v>
+      <c r="B28" s="49" t="s">
+        <v>17</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.9379703</v>
@@ -1474,10 +1515,10 @@
       <c r="L28" s="2" t="n">
         <v>0.063758089</v>
       </c>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1511,16 +1552,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="6" min="2" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="12" min="7" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="15" min="13" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1596,43 +1635,43 @@
       <c r="B4" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="50" t="n">
+      <c r="C4" s="51" t="n">
         <v>0.85644226</v>
       </c>
-      <c r="D4" s="51" t="n">
+      <c r="D4" s="52" t="n">
         <v>0.00022875598</v>
       </c>
-      <c r="E4" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="53" t="n">
+      <c r="E4" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="54" t="n">
         <v>-0.063771423</v>
       </c>
-      <c r="G4" s="54" t="n">
+      <c r="G4" s="55" t="n">
         <v>0.001210635</v>
       </c>
-      <c r="H4" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="55" t="n">
+      <c r="H4" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="56" t="n">
         <v>1.099765E-005</v>
       </c>
-      <c r="J4" s="55" t="n">
+      <c r="J4" s="56" t="n">
         <v>0.0012088582</v>
       </c>
-      <c r="K4" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="56" t="n">
+      <c r="K4" s="56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="57" t="n">
         <v>0.00038103487</v>
       </c>
-      <c r="M4" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="59" t="n">
+      <c r="M4" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="60" t="n">
         <v>0.126</v>
       </c>
     </row>
@@ -1641,43 +1680,43 @@
       <c r="B5" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="60" t="n">
+      <c r="C5" s="61" t="n">
         <v>0.94658096</v>
       </c>
-      <c r="D5" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="62" t="n">
+      <c r="D5" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="63" t="n">
         <v>-0.068202674</v>
       </c>
-      <c r="F5" s="63" t="n">
+      <c r="F5" s="64" t="n">
         <v>-0.0011682311</v>
       </c>
-      <c r="G5" s="64" t="n">
+      <c r="G5" s="65" t="n">
         <v>0.0015254677</v>
       </c>
-      <c r="H5" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="65" t="n">
+      <c r="H5" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="66" t="n">
         <v>0.00045953594</v>
       </c>
-      <c r="K5" s="65" t="n">
+      <c r="K5" s="66" t="n">
         <v>-1.085561E-005</v>
       </c>
-      <c r="L5" s="66" t="n">
+      <c r="L5" s="67" t="n">
         <v>0.0015173953</v>
       </c>
-      <c r="M5" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="68" t="n">
+      <c r="M5" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="69" t="n">
         <v>0.069</v>
       </c>
-      <c r="O5" s="69" t="n">
+      <c r="O5" s="70" t="n">
         <v>0.033</v>
       </c>
     </row>
@@ -1686,44 +1725,44 @@
       <c r="B6" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="60" t="n">
+      <c r="C6" s="61" t="n">
         <v>1.3026012</v>
       </c>
-      <c r="D6" s="61" t="n">
+      <c r="D6" s="62" t="n">
         <f aca="false">(-12.316429)*0.001</f>
         <v>-0.012316429</v>
       </c>
-      <c r="E6" s="62" t="n">
+      <c r="E6" s="63" t="n">
         <v>-0.057306228</v>
       </c>
-      <c r="F6" s="63" t="n">
+      <c r="F6" s="64" t="n">
         <v>-0.058763829</v>
       </c>
-      <c r="G6" s="64" t="n">
+      <c r="G6" s="65" t="n">
         <v>0.011110211</v>
       </c>
-      <c r="H6" s="65" t="n">
+      <c r="H6" s="66" t="n">
         <v>1.3305066E-005</v>
       </c>
-      <c r="I6" s="65" t="n">
+      <c r="I6" s="66" t="n">
         <v>-0.0013420827</v>
       </c>
-      <c r="J6" s="65" t="n">
+      <c r="J6" s="66" t="n">
         <v>0.010466418</v>
       </c>
-      <c r="K6" s="65" t="n">
+      <c r="K6" s="66" t="n">
         <v>0.00016235432</v>
       </c>
-      <c r="L6" s="66" t="n">
+      <c r="L6" s="67" t="n">
         <v>0.0020208074</v>
       </c>
-      <c r="M6" s="67" t="n">
+      <c r="M6" s="68" t="n">
         <v>0.03</v>
       </c>
-      <c r="N6" s="68" t="n">
+      <c r="N6" s="69" t="n">
         <v>-0.0115</v>
       </c>
-      <c r="O6" s="69" t="n">
+      <c r="O6" s="70" t="n">
         <v>0.264</v>
       </c>
     </row>
@@ -1732,43 +1771,43 @@
       <c r="B7" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="60" t="n">
+      <c r="C7" s="61" t="n">
         <v>1.159765</v>
       </c>
-      <c r="D7" s="61" t="n">
+      <c r="D7" s="62" t="n">
         <v>-0.070249575</v>
       </c>
-      <c r="E7" s="62" t="n">
+      <c r="E7" s="63" t="n">
         <v>0.00033820539</v>
       </c>
-      <c r="F7" s="63" t="n">
+      <c r="F7" s="64" t="n">
         <v>-0.00021122864</v>
       </c>
-      <c r="G7" s="64" t="n">
+      <c r="G7" s="65" t="n">
         <v>0.00096725611</v>
       </c>
-      <c r="H7" s="65" t="n">
+      <c r="H7" s="66" t="n">
         <v>4.3827949E-005</v>
       </c>
-      <c r="I7" s="65" t="n">
+      <c r="I7" s="66" t="n">
         <v>-2.7709945E-005</v>
       </c>
-      <c r="J7" s="65" t="n">
+      <c r="J7" s="66" t="n">
         <v>0.0031880136</v>
       </c>
-      <c r="K7" s="65" t="n">
+      <c r="K7" s="66" t="n">
         <v>6.265525E-006</v>
       </c>
-      <c r="L7" s="66" t="n">
+      <c r="L7" s="67" t="n">
         <v>0.0034148372</v>
       </c>
-      <c r="M7" s="67" t="n">
+      <c r="M7" s="68" t="n">
         <v>0.195</v>
       </c>
-      <c r="N7" s="68" t="n">
+      <c r="N7" s="69" t="n">
         <v>-0.0575</v>
       </c>
-      <c r="O7" s="69" t="n">
+      <c r="O7" s="70" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1777,43 +1816,43 @@
       <c r="B8" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="60" t="n">
+      <c r="C8" s="61" t="n">
         <v>0.44688117</v>
       </c>
-      <c r="D8" s="61" t="n">
+      <c r="D8" s="62" t="n">
         <v>-0.0065785038</v>
       </c>
-      <c r="E8" s="62" t="n">
+      <c r="E8" s="63" t="n">
         <v>-0.047168613</v>
       </c>
-      <c r="F8" s="63" t="n">
+      <c r="F8" s="64" t="n">
         <v>1.5212877E-005</v>
       </c>
-      <c r="G8" s="64" t="n">
+      <c r="G8" s="65" t="n">
         <v>0.00030285379</v>
       </c>
-      <c r="H8" s="65" t="n">
+      <c r="H8" s="66" t="n">
         <v>7.6134572E-006</v>
       </c>
-      <c r="I8" s="65" t="n">
+      <c r="I8" s="66" t="n">
         <v>3.0566955E-007</v>
       </c>
-      <c r="J8" s="65" t="n">
+      <c r="J8" s="66" t="n">
         <v>0.00022338856</v>
       </c>
-      <c r="K8" s="65" t="n">
+      <c r="K8" s="66" t="n">
         <v>-1.4736716E-008</v>
       </c>
-      <c r="L8" s="66" t="n">
+      <c r="L8" s="67" t="n">
         <v>0.00039765883</v>
       </c>
-      <c r="M8" s="67" t="n">
+      <c r="M8" s="68" t="n">
         <v>0.063</v>
       </c>
-      <c r="N8" s="68" t="n">
+      <c r="N8" s="69" t="n">
         <v>0.045</v>
       </c>
-      <c r="O8" s="69" t="n">
+      <c r="O8" s="70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1822,49 +1861,49 @@
       <c r="B9" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="C9" s="70" t="n">
+      <c r="C9" s="71" t="n">
         <v>0.43273161</v>
       </c>
-      <c r="D9" s="71" t="n">
+      <c r="D9" s="72" t="n">
         <v>-0.054688318</v>
       </c>
-      <c r="E9" s="72" t="n">
+      <c r="E9" s="73" t="n">
         <v>0.00042579412</v>
       </c>
-      <c r="F9" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="74" t="n">
+      <c r="F9" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="75" t="n">
         <v>0.00021512119</v>
       </c>
-      <c r="H9" s="75" t="n">
+      <c r="H9" s="76" t="n">
         <v>1.0094085E-005</v>
       </c>
-      <c r="I9" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="75" t="n">
+      <c r="I9" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="76" t="n">
         <v>0.00042827051</v>
       </c>
-      <c r="K9" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="76" t="n">
+      <c r="K9" s="76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="77" t="n">
         <v>0.00051436202</v>
       </c>
-      <c r="M9" s="77" t="n">
+      <c r="M9" s="78" t="n">
         <v>0.123</v>
       </c>
-      <c r="N9" s="78" t="n">
+      <c r="N9" s="79" t="n">
         <v>-0.045</v>
       </c>
-      <c r="O9" s="79" t="n">
+      <c r="O9" s="80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
-      <c r="C10" s="80" t="n">
+      <c r="C10" s="81" t="n">
         <v>0.019193477</v>
       </c>
       <c r="D10" s="1" t="n">
@@ -1876,22 +1915,22 @@
       <c r="F10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="81" t="n">
+      <c r="G10" s="82" t="n">
         <v>9.3770295E-006</v>
       </c>
-      <c r="H10" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="81" t="n">
+      <c r="H10" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="82" t="n">
         <v>3.3795387E-006</v>
       </c>
-      <c r="K10" s="81" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="81" t="n">
+      <c r="K10" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="82" t="n">
         <v>6.3534195E-006</v>
       </c>
       <c r="M10" s="1" t="n">
@@ -1999,29 +2038,29 @@
       <c r="B19" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="51" t="n">
+      <c r="C19" s="83"/>
+      <c r="D19" s="52" t="n">
         <v>0.00022875598</v>
       </c>
-      <c r="E19" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="53" t="n">
+      <c r="E19" s="53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="54" t="n">
         <v>0.062228577</v>
       </c>
-      <c r="G19" s="83"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="59" t="n">
+      <c r="G19" s="84"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="60" t="n">
         <v>0.126</v>
       </c>
     </row>
@@ -2030,29 +2069,29 @@
       <c r="B20" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="62" t="n">
+      <c r="C20" s="87"/>
+      <c r="D20" s="62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="63" t="n">
         <v>0.00079732584</v>
       </c>
-      <c r="F20" s="63" t="n">
+      <c r="F20" s="64" t="n">
         <v>0.031831769</v>
       </c>
-      <c r="G20" s="64"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="68" t="n">
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="69" t="n">
         <v>0.069</v>
       </c>
-      <c r="O20" s="69" t="n">
+      <c r="O20" s="70" t="n">
         <v>0.033</v>
       </c>
     </row>
@@ -2061,29 +2100,29 @@
       <c r="B21" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61" t="n">
+      <c r="C21" s="61"/>
+      <c r="D21" s="62" t="n">
         <v>0.017683571</v>
       </c>
-      <c r="E21" s="62" t="n">
+      <c r="E21" s="63" t="n">
         <v>-0.068806228</v>
       </c>
-      <c r="F21" s="63" t="n">
+      <c r="F21" s="64" t="n">
         <v>0.20523617</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="67" t="n">
+      <c r="G21" s="65"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="68" t="n">
         <v>0.03</v>
       </c>
-      <c r="N21" s="68" t="n">
+      <c r="N21" s="69" t="n">
         <v>-0.0115</v>
       </c>
-      <c r="O21" s="69" t="n">
+      <c r="O21" s="70" t="n">
         <v>0.264</v>
       </c>
     </row>
@@ -2092,29 +2131,29 @@
       <c r="B22" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61" t="n">
+      <c r="C22" s="61"/>
+      <c r="D22" s="62" t="n">
         <v>0.12475042</v>
       </c>
-      <c r="E22" s="62" t="n">
+      <c r="E22" s="63" t="n">
         <v>-0.057161795</v>
       </c>
-      <c r="F22" s="63" t="n">
+      <c r="F22" s="64" t="n">
         <v>0.029788771</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="67" t="n">
+      <c r="G22" s="65"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="68" t="n">
         <v>0.195</v>
       </c>
-      <c r="N22" s="68" t="n">
+      <c r="N22" s="69" t="n">
         <v>-0.0575</v>
       </c>
-      <c r="O22" s="69" t="n">
+      <c r="O22" s="70" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2123,29 +2162,29 @@
       <c r="B23" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="61" t="n">
+      <c r="C23" s="61"/>
+      <c r="D23" s="62" t="n">
         <v>0.056421496</v>
       </c>
-      <c r="E23" s="62" t="n">
+      <c r="E23" s="63" t="n">
         <v>-0.0021686127</v>
       </c>
-      <c r="F23" s="63" t="n">
+      <c r="F23" s="64" t="n">
         <v>1.5212877E-005</v>
       </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="67" t="n">
+      <c r="G23" s="65"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="68" t="n">
         <v>0.063</v>
       </c>
-      <c r="N23" s="68" t="n">
+      <c r="N23" s="69" t="n">
         <v>0.045</v>
       </c>
-      <c r="O23" s="69" t="n">
+      <c r="O23" s="70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2154,42 +2193,42 @@
       <c r="B24" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71" t="n">
+      <c r="C24" s="71"/>
+      <c r="D24" s="72" t="n">
         <v>0.068311682</v>
       </c>
-      <c r="E24" s="72" t="n">
+      <c r="E24" s="73" t="n">
         <v>-0.044574206</v>
       </c>
-      <c r="F24" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="77" t="n">
+      <c r="F24" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="75"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="78" t="n">
         <v>0.123</v>
       </c>
-      <c r="N24" s="78" t="n">
+      <c r="N24" s="79" t="n">
         <v>-0.045</v>
       </c>
-      <c r="O24" s="79" t="n">
+      <c r="O24" s="80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="D25" s="80" t="n">
+      <c r="D25" s="81" t="n">
         <v>0.0033658411</v>
       </c>
-      <c r="E25" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="80" t="n">
+      <c r="E25" s="81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="81" t="n">
         <v>0</v>
       </c>
       <c r="G25" s="1"/>
@@ -2237,7 +2276,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="80"/>
+      <c r="F28" s="81"/>
       <c r="G28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -2269,12 +2308,12 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80" t="n">
+      <c r="H30" s="81"/>
+      <c r="I30" s="81" t="n">
         <f aca="false">D24-D9</f>
         <v>0.123</v>
       </c>
-      <c r="J30" s="80" t="n">
+      <c r="J30" s="81" t="n">
         <f aca="false">E24-E9</f>
         <v>-0.04500000012</v>
       </c>
@@ -2316,7 +2355,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
